--- a/documentation/rough-budget.xlsx
+++ b/documentation/rough-budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Component</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>Mouser | Digikey</t>
+  </si>
+  <si>
+    <t>Sense Resistor</t>
+  </si>
+  <si>
+    <t>WSLF25121L000FEA</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>1mΩ 6W</t>
+  </si>
+  <si>
+    <t>Current Amplifier</t>
+  </si>
+  <si>
+    <t>AD8418</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>Bidirectional, Zero Drift, Current Sense Amplifier High accuracy gain = 20</t>
   </si>
   <si>
     <t>PCB</t>
@@ -147,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,14 +193,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Georgia"/>
@@ -192,34 +247,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Georgia"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,18 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,15 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,25 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Georgia"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +320,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -340,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,17 +717,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,21 +777,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -765,28 +794,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,152 +819,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,12 +996,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1325,7 +1343,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1369,7 +1387,7 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1391,13 +1409,13 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>12.87</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f>J3*I3</f>
         <v>12.87</v>
       </c>
@@ -1420,13 +1438,13 @@
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>4</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>3.05</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f t="shared" ref="K4:K14" si="0">J4*I4</f>
         <v>12.2</v>
       </c>
@@ -1451,13 +1469,13 @@
       <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>8</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>1.6</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
@@ -1480,13 +1498,13 @@
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>1.89</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>1.89</v>
       </c>
@@ -1508,16 +1526,16 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>45.46</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>45.46</v>
       </c>
@@ -1542,13 +1560,13 @@
       <c r="H8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>20</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1570,56 +1588,80 @@
       <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="19">
+    </row>
+    <row r="10" ht="15.75" spans="2:11">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:11">
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
         <v>10</v>
       </c>
-      <c r="K9" s="17">
-        <f t="shared" si="0"/>
+      <c r="K11" s="15">
+        <f>J11*I11</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="2:11">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:11">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="2:11">
@@ -1629,14 +1671,14 @@
       <c r="E12" s="6"/>
       <c r="F12" s="10"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="H12" s="10"/>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1648,14 +1690,14 @@
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="H13" s="10"/>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1667,14 +1709,14 @@
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="H14" s="10"/>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1686,14 +1728,14 @@
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="H15" s="10"/>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <f t="shared" ref="K15:K30" si="1">J15*I15</f>
         <v>0</v>
       </c>
@@ -1705,14 +1747,14 @@
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="H16" s="10"/>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1724,14 +1766,14 @@
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="H17" s="10"/>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1743,14 +1785,14 @@
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="H18" s="10"/>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1762,14 +1804,14 @@
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="H19" s="10"/>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1781,14 +1823,14 @@
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="H20" s="10"/>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1800,14 +1842,14 @@
       <c r="E21" s="6"/>
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="H21" s="10"/>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1819,14 +1861,14 @@
       <c r="E22" s="6"/>
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="H22" s="10"/>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1838,14 +1880,14 @@
       <c r="E23" s="6"/>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="H23" s="10"/>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1857,14 +1899,14 @@
       <c r="E24" s="6"/>
       <c r="F24" s="10"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="H24" s="10"/>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1876,14 +1918,14 @@
       <c r="E25" s="6"/>
       <c r="F25" s="10"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="H25" s="10"/>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1895,14 +1937,14 @@
       <c r="E26" s="6"/>
       <c r="F26" s="10"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="19">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="H26" s="10"/>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1914,14 +1956,14 @@
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="H27" s="10"/>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1933,14 +1975,14 @@
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="18">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
+      <c r="H28" s="10"/>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1952,14 +1994,14 @@
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="H29" s="10"/>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1969,27 +2011,27 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="20">
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="H30" s="11"/>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="10:11">
-      <c r="J31" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="22">
+      <c r="J31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="20">
         <f>SUM(K3:K30)</f>
-        <v>115.22</v>
+        <v>121.22</v>
       </c>
     </row>
     <row r="32" ht="15"/>

--- a/documentation/rough-budget.xlsx
+++ b/documentation/rough-budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Component</t>
   </si>
@@ -97,6 +97,9 @@
     <t>CP2130</t>
   </si>
   <si>
+    <t>USB Uart Bridge</t>
+  </si>
+  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -130,13 +133,16 @@
     <t>Sense Resistor</t>
   </si>
   <si>
-    <t>WSLF25121L000FEA</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>1mΩ 6W</t>
+    <t xml:space="preserve">LRMAP3920B-R0007FT </t>
+  </si>
+  <si>
+    <t>IRC / TT Electronics</t>
+  </si>
+  <si>
+    <t>700uΩ 5W</t>
+  </si>
+  <si>
+    <t>Mouser | Farnell</t>
   </si>
   <si>
     <t>Current Amplifier</t>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>Bidirectional, Zero Drift, Current Sense Amplifier High accuracy gain = 20</t>
+  </si>
+  <si>
+    <t>Bulk capacitors</t>
   </si>
   <si>
     <t>PCB</t>
@@ -171,11 +180,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,18 +202,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Georgia"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +225,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -231,25 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,15 +270,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Georgia"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Georgia"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,30 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +314,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Georgia"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Georgia"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,43 +373,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,139 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +722,36 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,45 +777,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -787,15 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,153 +805,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,7 +1352,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1416,7 +1425,7 @@
         <v>12.87</v>
       </c>
       <c r="K3" s="15">
-        <f>J3*I3</f>
+        <f t="shared" ref="K3:K7" si="0">J3*I3</f>
         <v>12.87</v>
       </c>
     </row>
@@ -1445,7 +1454,7 @@
         <v>3.05</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K14" si="0">J4*I4</f>
+        <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
     </row>
@@ -1513,159 +1522,151 @@
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="17">
-        <v>45.46</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>45.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:11">
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
+      <c r="H8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="16">
         <v>1</v>
       </c>
       <c r="J8" s="17">
-        <v>20</v>
+        <v>45.46</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="K8:K12" si="1">J8*I8</f>
+        <v>45.46</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="2:11">
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="17">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="2:11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="2:11">
       <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I10" s="16">
         <v>2</v>
       </c>
       <c r="J10" s="17">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:11">
       <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="2:11">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17">
-        <v>10</v>
-      </c>
-      <c r="K11" s="15">
-        <f>J11*I11</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="2:11">
-      <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1673,24 +1674,36 @@
       <c r="G12" s="6"/>
       <c r="H12" s="10"/>
       <c r="I12" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="2:11">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="0"/>
+        <f>J13*I13</f>
         <v>0</v>
       </c>
     </row>
@@ -1717,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="0"/>
+        <f>J14*I14</f>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" ref="K15:K30" si="1">J15*I15</f>
+        <f t="shared" ref="K15:K30" si="2">J15*I15</f>
         <v>0</v>
       </c>
     </row>
@@ -1755,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1793,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1831,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1907,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1983,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2002,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2021,17 +2034,17 @@
         <v>0</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="10:11">
       <c r="J31" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K31" s="20">
         <f>SUM(K3:K30)</f>
-        <v>121.22</v>
+        <v>115.42</v>
       </c>
     </row>
     <row r="32" ht="15"/>

--- a/documentation/rough-budget.xlsx
+++ b/documentation/rough-budget.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13155"/>
+    <workbookView windowWidth="19095" windowHeight="12315" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Component</t>
   </si>
@@ -76,6 +77,12 @@
     <t>Mouser | Digikey | Farnell</t>
   </si>
   <si>
+    <t>Brake Mosfet Driver</t>
+  </si>
+  <si>
+    <t>Si8261BAC-IS</t>
+  </si>
+  <si>
     <t>Mosfet</t>
   </si>
   <si>
@@ -98,6 +105,9 @@
   </si>
   <si>
     <t>USB Uart Bridge</t>
+  </si>
+  <si>
+    <t>CP2102N</t>
   </si>
   <si>
     <t>Motor</t>
@@ -181,23 +191,138 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Georgia"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Georgia"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,66 +330,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Georgia"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Georgia"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Georgia"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -272,79 +361,10 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Georgia"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Georgia"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -355,19 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor rgb="FF4B5064"/>
+        <bgColor rgb="FF546D7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF546D7A"/>
+        <bgColor rgb="FF4B5064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88A1AD"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,181 +417,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +742,39 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,19 +812,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,34 +833,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -828,148 +848,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,6 +1100,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00546D7A"/>
+      <rgbColor rgb="0088A1AD"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="004B5064"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1099,9 +1177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Civic">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Civic">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="D3DAE3"/>
       </a:dk1>
@@ -1109,48 +1187,83 @@
         <a:sysClr val="window" lastClr="404552"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="646B86"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="C5D1D7"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="D16349"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="CCB400"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="8CADAE"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8C7B70"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="8FB08C"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="D19049"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="00A3D6"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="694F07"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Civic">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Georgia"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="돋움"/>
-        <a:font script="Hans" typeface="方正舒体"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1174,171 +1287,143 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Georgia"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
-        <a:font script="Hang" typeface="바탕"/>
-        <a:font script="Hans" typeface="方正舒体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Civic">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="45000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="11429" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-        <a:ln w="20000" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="25400" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="45000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront" fov="0">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d contourW="9525" prstMaterial="matte">
-            <a:bevelT w="0" h="0"/>
-            <a:contourClr>
-              <a:schemeClr val="phClr">
-                <a:shade val="70000"/>
-                <a:satMod val="105000"/>
-              </a:schemeClr>
-            </a:contourClr>
-          </a:sp3d>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="25400" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="45000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront" fov="0">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="soft" dir="b">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d prstMaterial="dkEdge">
-            <a:bevelT w="63500" h="63500" prst="cross"/>
-            <a:contourClr>
-              <a:schemeClr val="phClr"/>
-            </a:contourClr>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:duotone>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="70000"/>
-                <a:satMod val="115000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="85000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
-            </a:duotone>
-          </a:blip>
-          <a:tile tx="0" ty="0" sx="85000" sy="85000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:duotone>
+            </a:gs>
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="65000"/>
-                <a:satMod val="115000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
-              <a:schemeClr val="phClr">
-                <a:tint val="85000"/>
-              </a:schemeClr>
-            </a:duotone>
-          </a:blip>
-          <a:tile tx="0" ty="0" sx="65000" sy="65000" flip="none" algn="tl"/>
-        </a:blipFill>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1349,26 +1434,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K32"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="3.37037037037037" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="72.125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="20.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="72.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.5037037037037" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="31.5" spans="2:11">
+    <row r="1" ht="13.5"/>
+    <row r="2" ht="28.5" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="2:11">
+    <row r="3" ht="13.5" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1425,11 +1511,11 @@
         <v>12.87</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K7" si="0">J3*I3</f>
+        <f t="shared" ref="K3:K30" si="0">J3*I3</f>
         <v>12.87</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="2:11">
+    <row r="4" ht="13.5" spans="2:11">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1544,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="2:11">
+    <row r="5" ht="13.5" spans="2:11">
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1466,275 +1552,293 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="2:11">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="16">
-        <v>8</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="2:11">
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="17">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="0"/>
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="2:11">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="2:11">
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="17">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="2:11">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="2:11">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="10"/>
       <c r="G8" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I8" s="16">
         <v>1</v>
       </c>
       <c r="J8" s="17">
-        <v>45.46</v>
+        <v>1.2</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" ref="K8:K12" si="1">J8*I8</f>
-        <v>45.46</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="2:11">
       <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
       </c>
       <c r="J9" s="17">
-        <v>20</v>
+        <v>45.46</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="2:11">
       <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>20</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="2:11">
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:11">
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="2:11">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17">
         <v>2.5</v>
       </c>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="2:11">
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="16">
+    <row r="13" ht="13.5" spans="2:11">
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="16">
         <v>4</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
+      <c r="K13" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="2:11">
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="6" t="s">
+    <row r="14" ht="13.5" spans="2:11">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <f>J13*I13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="2:11">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="I14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K14" s="15">
-        <f>J14*I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="2:11">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1749,11 +1853,11 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" ref="K15:K30" si="2">J15*I15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="2:11">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1768,11 +1872,11 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="2:11">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1787,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="2:11">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1806,11 +1910,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="2:11">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1825,11 +1929,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="2:11">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1844,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="2:11">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1863,11 +1967,11 @@
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="2:11">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1882,11 +1986,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" spans="2:11">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1901,11 +2005,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="2:11">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1920,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="2:11">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1939,11 +2043,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="2:11">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1958,11 +2062,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" spans="2:11">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1977,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" spans="2:11">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1996,11 +2100,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" spans="2:11">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2015,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="2:11">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2034,22 +2138,28 @@
         <v>0</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="10:11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="10:11">
       <c r="J31" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31" s="20">
         <f>SUM(K3:K30)</f>
-        <v>115.42</v>
-      </c>
-    </row>
-    <row r="32" ht="15"/>
+        <v>144.72</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5"/>
+    <row r="34" spans="4:4">
+      <c r="D34">
+        <v>4.76</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/documentation/rough-budget.xlsx
+++ b/documentation/rough-budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12315" tabRatio="500"/>
+    <workbookView windowWidth="9495" windowHeight="11895" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Component</t>
   </si>
@@ -158,7 +158,7 @@
     <t>Current Amplifier</t>
   </si>
   <si>
-    <t>AD8418</t>
+    <t>AD8418A</t>
   </si>
   <si>
     <t>Analog Devices</t>
@@ -170,16 +170,31 @@
     <t>Bulk capacitors</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>100x100-FR4-2L</t>
-  </si>
-  <si>
-    <t>JLCPCB</t>
-  </si>
-  <si>
-    <t>~25€ w/stencil, ~10€ without, epacket shipping</t>
+    <t>74LVC3G17</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t>DSC1101</t>
+  </si>
+  <si>
+    <t>DSK24</t>
+  </si>
+  <si>
+    <t>MIC39101</t>
+  </si>
+  <si>
+    <t>MIC4682</t>
+  </si>
+  <si>
+    <t>SK54L</t>
+  </si>
+  <si>
+    <t>SP0503BAHT</t>
+  </si>
+  <si>
+    <t>SRV05-4</t>
   </si>
   <si>
     <t>Total:</t>
@@ -192,9 +207,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,13 +225,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,24 +254,99 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,34 +358,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,73 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -393,187 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +766,71 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,73 +853,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,138 +863,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,10 +1449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K34"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1790,7 +1805,9 @@
       <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
@@ -1808,39 +1825,31 @@
       </c>
     </row>
     <row r="14" ht="13.5" spans="2:11">
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:11">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
@@ -1859,7 +1868,9 @@
     </row>
     <row r="16" ht="13.5" spans="2:11">
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
@@ -1878,7 +1889,9 @@
     </row>
     <row r="17" ht="13.5" spans="2:11">
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
@@ -1897,7 +1910,9 @@
     </row>
     <row r="18" ht="13.5" spans="2:11">
       <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
@@ -1916,7 +1931,9 @@
     </row>
     <row r="19" ht="13.5" spans="2:11">
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
@@ -1935,7 +1952,9 @@
     </row>
     <row r="20" ht="13.5" spans="2:11">
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
@@ -1954,7 +1973,9 @@
     </row>
     <row r="21" ht="13.5" spans="2:11">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10"/>
@@ -2144,19 +2165,14 @@
     </row>
     <row r="31" ht="15" spans="10:11">
       <c r="J31" s="19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K31" s="20">
         <f>SUM(K3:K30)</f>
-        <v>144.72</v>
+        <v>119.72</v>
       </c>
     </row>
     <row r="32" ht="13.5"/>
-    <row r="34" spans="4:4">
-      <c r="D34">
-        <v>4.76</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/documentation/rough-budget.xlsx
+++ b/documentation/rough-budget.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="9495" windowHeight="11895" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12315" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial Estimate" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="Mouser" sheetId="4" r:id="rId3"/>
+    <sheet name="Farnell" sheetId="5" r:id="rId4"/>
+    <sheet name="HobbyKing" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="218">
   <si>
     <t>Component</t>
   </si>
@@ -170,34 +174,505 @@
     <t>Bulk capacitors</t>
   </si>
   <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sampled</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>IC's</t>
+  </si>
+  <si>
     <t>74LVC3G17</t>
   </si>
   <si>
+    <t>DSC1101</t>
+  </si>
+  <si>
+    <t>MIC39101</t>
+  </si>
+  <si>
+    <t>MIC4682</t>
+  </si>
+  <si>
+    <t>SI82397</t>
+  </si>
+  <si>
+    <t>SI8261</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>F20F-10DP-1V</t>
+  </si>
+  <si>
+    <t>SH-6</t>
+  </si>
+  <si>
+    <t>SH-5</t>
+  </si>
+  <si>
+    <t>SH-3</t>
+  </si>
+  <si>
+    <t>SH-2</t>
+  </si>
+  <si>
+    <t>USB-Mini</t>
+  </si>
+  <si>
+    <t>2P-6.35P</t>
+  </si>
+  <si>
+    <t>4P-6.35P</t>
+  </si>
+  <si>
+    <t>Passives '</t>
+  </si>
+  <si>
     <t>BAT54S</t>
   </si>
   <si>
-    <t>DSC1101</t>
+    <t>LED0603</t>
+  </si>
+  <si>
+    <t>SK54L</t>
+  </si>
+  <si>
+    <t>SP0503BAHT</t>
+  </si>
+  <si>
+    <t>SRV05-4</t>
   </si>
   <si>
     <t>DSK24</t>
   </si>
   <si>
-    <t>MIC39101</t>
-  </si>
-  <si>
-    <t>MIC4682</t>
-  </si>
-  <si>
-    <t>SK54L</t>
-  </si>
-  <si>
-    <t>SP0503BAHT</t>
-  </si>
-  <si>
-    <t>SRV05-4</t>
-  </si>
-  <si>
-    <t>Total:</t>
+    <t>Passives</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>100k ntc</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n 25v </t>
+  </si>
+  <si>
+    <t>100p</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10u 25v</t>
+  </si>
+  <si>
+    <t>140k</t>
+  </si>
+  <si>
+    <t>2r2</t>
+  </si>
+  <si>
+    <t>220n 25v</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>330u</t>
+  </si>
+  <si>
+    <t>4.2k</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>4u7</t>
+  </si>
+  <si>
+    <t>68uH</t>
+  </si>
+  <si>
+    <t>700u</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/CUI/AMT102-V?qs=%2Fha2pyFadui4RzVBRTfUG9UOa9jox1ECIM3vJaJgYZM%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmitt Trigger Buffer </t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>74LVC3G17DP,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverters TRIP NO-INV SCH TRIG </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Nexperia/74LVC3G17DP125?qs=sGAEpiMZZMutVWjHE%2FYQwzJv2zzn7Nf7xo%2FBjJPc24g%3D</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Hirose Connector</t>
+  </si>
+  <si>
+    <t>DF20F-10DP-1V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headers &amp; Wire Housings 10P M PIN HEADER DR STRAIGHT SMT GOLD </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/798-DF20F10DP1V55</t>
+  </si>
+  <si>
+    <t>Terminals</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>Fixed Terminal Blocks MKDSV 5/ 4-6.35 32A</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Phoenix-Contact/1710056?qs=sGAEpiMZZMvZTcaMAxB2ABBNmx7J9ErWGaY6GpdlOPw%3D</t>
+  </si>
+  <si>
+    <t>Fixed Terminal Blocks MKDSV 5/ 2-6.35 32A</t>
+  </si>
+  <si>
+    <t>Schottky Diodes</t>
+  </si>
+  <si>
+    <t>ROHM Semiconductor</t>
+  </si>
+  <si>
+    <t>BAT54SHMFHT116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers 30V Vr 0.2A Io SBD SOT-23 0.1A </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/755-BAT54SHMFHT116</t>
+  </si>
+  <si>
+    <t>Mosfets</t>
+  </si>
+  <si>
+    <t>Infineon / IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7580MTRPBF </t>
+  </si>
+  <si>
+    <t>MOSFET 60V StrongIRFET Power Mosfet</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Infineon-IR/IRF7580MTRPBF?qs=%2Fha2pyFaduheoRF4NWRuso0QsA4125mD2I3tz5lckd0%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diodes </t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK54L-TP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers 40V, 5A </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/833-SK54L-TP</t>
+  </si>
+  <si>
+    <t>B5817w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers 1A Schottky Rectifier </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/833-B5817W-TP</t>
+  </si>
+  <si>
+    <t>Sense Resistors</t>
+  </si>
+  <si>
+    <t>IRC / TT</t>
+  </si>
+  <si>
+    <t>LRMAP3920B-R0007FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Sense Resistors - SMD .7 mOhm 5W 1% Tol +/- 60 ppm </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/IRC-TT-Electronics/LRMAP3920B-R0007FT?qs=%2Fha2pyFadug6l3AIf86DHwNTyAg35HzA7pjz7paqWoeDXjtYLRcNHHxV81T73xw6</t>
+  </si>
+  <si>
+    <t>NTC</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>NCU18WF104J60RB</t>
+  </si>
+  <si>
+    <t>NTC (Negative Temperature Coefficient) Thermistors 100kohm 1608 SMD 0.05</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 100 OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RC0603FR-071K2L </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 1.2K OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-071K2L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRPTAMWZ6ZqwY%3D</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K22L</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 4.22K OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-074K22L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRiD9rIGzKoM4%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RC0603FR-072KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors 2K OHM 1% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072KL?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRt9oG83fAJgA%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0724KL </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 24K OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0724KL?qs=sGAEpiMZZMvdGkrng054t3K8J6CcnfQ5adHpsze0Ggw%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-072R2L </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 2.2 OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072R2L?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xQlq9a62Wvu8%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-071K13L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors 1.13K OHM 1% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-071K13L?qs=sGAEpiMZZMvdGkrng054t8Pyfa06IR6dR1dWRH3Dn0Q%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07140KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors 140K OHM 1% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07140KL?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xVGtQ4Izh%252B14%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0710KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors 10K OHM 1% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDFRS%252Bk3sHilE%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0710ML </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 10M OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710ML?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRC6jLGNvjt5I%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07100KL </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 100K OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0747KL </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 47K OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0747KL?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaR3%2FWJtGCqf3I%3D</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C104Z3VACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 25V 0.1uF 0603 Y5V -20/+80% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>885012206077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT WCAP-CSGP 100pF 0603 10% 50V </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>TMK107BJ224KAHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 0.22uF 25V X5R +/-10% 0603 AEC-Q200 </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Pulse Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA4342.683ANLT </t>
+  </si>
+  <si>
+    <t>Fixed Inductors 68uH 2.4A 4mm 20% SMT</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D</t>
+  </si>
+  <si>
+    <t>Lelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VZL101M1ETR-0607 </t>
+  </si>
+  <si>
+    <t>Aluminium Electrolytic Capacitors - SMD 100uF 25 Volts 20%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>UWT1H221MNL1GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium Electrolytic Capacitors - SMD 50volts 220uF 10x10 '20% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Motor Controller</t>
+  </si>
+  <si>
+    <t>TMC4671-ES</t>
+  </si>
+  <si>
+    <t>Motor Field Oriented Controller, BLDC, DC Motor, PMSM, Stepper</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671</t>
+  </si>
+  <si>
+    <t>BLDC</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/pt_pt/kd-53-30-high-voltage-brushless-outrunner-190kv.html</t>
   </si>
 </sst>
 </file>
@@ -205,18 +680,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00&quot;€&quot;;\-#,##0.00&quot;€&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -233,68 +716,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,61 +742,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +759,110 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,25 +871,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4B5064"/>
+        <fgColor rgb="FFF7F9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9F6"/>
         <bgColor rgb="FF546D7A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF546D7A"/>
+        <fgColor rgb="FFF7F9F6"/>
         <bgColor rgb="FF4B5064"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88A1AD"/>
+        <fgColor rgb="FFF7F9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9F6"/>
         <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,43 +1021,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,127 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,56 +1264,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -850,6 +1293,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -858,209 +1336,308 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="48" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="48" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1182,6 +1759,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="00000000"/>
+      <color rgb="00F7F9F6"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1451,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1470,704 +2051,694 @@
   <sheetData>
     <row r="1" ht="13.5"/>
     <row r="2" ht="28.5" spans="2:11">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="2:11">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="40">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="41">
         <v>12.87</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="42">
         <f t="shared" ref="K3:K30" si="0">J3*I3</f>
         <v>12.87</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="2:11">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="43">
         <v>4</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="44">
         <v>3.05</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="2:11">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="43">
         <v>1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="44">
         <v>1.5</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="42">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="2:11">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="43">
         <v>9</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="44">
         <v>1.6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="42">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="2:11">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="43">
         <v>1</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="44">
         <v>1.89</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="42">
         <f t="shared" si="0"/>
         <v>1.89</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:11">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="43">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="44">
         <v>1.2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="42">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="2:11">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="43">
         <v>1</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="44">
         <v>45.46</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="42">
         <f t="shared" si="0"/>
         <v>45.46</v>
       </c>
     </row>
     <row r="10" ht="13.5" spans="2:11">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="43">
         <v>1</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="44">
         <v>20</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="43">
         <v>2</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="44">
         <v>0.6</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="2:11">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="43">
         <v>2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="44">
         <v>2.5</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="13.5" spans="2:11">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="16">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="43">
         <v>4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="2:11">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
+      <c r="K14" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:11">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="43">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="2:11">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0</v>
+      </c>
+      <c r="K16" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="13.5" spans="2:11">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="43">
+        <v>0</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="2:11">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="43">
+        <v>0</v>
+      </c>
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="13.5" spans="2:11">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="2:11">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="43">
+        <v>0</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="2:11">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="43">
+        <v>0</v>
+      </c>
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="2:11">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="43">
+        <v>0</v>
+      </c>
+      <c r="J22" s="44">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="13.5" spans="2:11">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="43">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.5" spans="2:11">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="43">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="13.5" spans="2:11">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="13.5" spans="2:11">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="43">
+        <v>0</v>
+      </c>
+      <c r="J26" s="44">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="13.5" spans="2:11">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <v>0</v>
+      </c>
+      <c r="K27" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="2:11">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="43">
+        <v>0</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="13.5" spans="2:11">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0</v>
-      </c>
-      <c r="K29" s="15">
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="43">
+        <v>0</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="2:11">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="45">
+        <v>0</v>
+      </c>
+      <c r="J30" s="44">
+        <v>0</v>
+      </c>
+      <c r="K30" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="10:11">
-      <c r="J31" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="20">
+    <row r="31" ht="15" spans="2:11">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="47">
         <f>SUM(K3:K30)</f>
         <v>119.72</v>
       </c>
@@ -2178,4 +2749,1828 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="8.77777777777778" customWidth="1"/>
+    <col min="3" max="4" width="12.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9.55555555555556" customWidth="1"/>
+    <col min="6" max="7" width="7.11111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="21"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="21"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="21"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="21"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="21"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="21"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="21"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="21"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="21"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="21"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="21"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="21"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="21"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="21"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="21"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="21"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="21"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="21"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="26">
+        <v>100</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="21"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="21"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="21"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>33</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="21"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="21"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>22</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="21"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="21"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="21"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>27</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="21"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="21"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="21"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>13</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="21"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="26">
+        <v>220</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>3</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="21"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>4</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="21"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>7</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="21"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="21"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="21"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="21"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="21"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="21"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>17</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="21"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="21"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="23"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="23"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B51"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.07407407407407" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="66.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.44444444444444" customWidth="1"/>
+    <col min="8" max="8" width="137.888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1706756</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1710056</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="2:8">
+      <c r="B18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="https://eu.mouser.com/ProductDetail/CUI/AMT102-V?qs=%2Fha2pyFadui4RzVBRTfUG9UOa9jox1ECIM3vJaJgYZM%3D" tooltip="https://eu.mouser.com/ProductDetail/CUI/AMT102-V?qs=%2Fha2pyFadui4RzVBRTfUG9UOa9jox1ECIM3vJaJgYZM%3D"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://eu.mouser.com/ProductDetail/Nexperia/74LVC3G17DP125?qs=sGAEpiMZZMutVWjHE%2FYQwzJv2zzn7Nf7xo%2FBjJPc24g%3D"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://eu.mouser.com/ProductDetail/798-DF20F10DP1V55"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://eu.mouser.com/ProductDetail/Phoenix-Contact/1710056?qs=sGAEpiMZZMvZTcaMAxB2ABBNmx7J9ErWGaY6GpdlOPw%3D" tooltip="https://eu.mouser.com/ProductDetail/Phoenix-Contact/1710056?qs=sGAEpiMZZMvZTcaMAxB2ABBNmx7J9ErWGaY6GpdlOPw%3D"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://eu.mouser.com/ProductDetail/Phoenix-Contact/1710056?qs=sGAEpiMZZMvZTcaMAxB2ABBNmx7J9ErWGaY6GpdlOPw%3D"/>
+    <hyperlink ref="H9" r:id="rId5" display="https://eu.mouser.com/ProductDetail/Infineon-IR/IRF7580MTRPBF?qs=%2Fha2pyFaduheoRF4NWRuso0QsA4125mD2I3tz5lckd0%3D"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://eu.mouser.com/ProductDetail/755-BAT54SHMFHT116"/>
+    <hyperlink ref="H10" r:id="rId7" display="https://eu.mouser.com/ProductDetail/833-SK54L-TP"/>
+    <hyperlink ref="H11" r:id="rId8" display="https://eu.mouser.com/ProductDetail/833-B5817W-TP"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://eu.mouser.com/ProductDetail/IRC-TT-Electronics/LRMAP3920B-R0007FT?qs=%2Fha2pyFadug6l3AIf86DHwNTyAg35HzA7pjz7paqWoeDXjtYLRcNHHxV81T73xw6"/>
+    <hyperlink ref="H13" r:id="rId10" display="https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-071K2L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRPTAMWZ6ZqwY%3D"/>
+    <hyperlink ref="H16" r:id="rId13" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-074K22L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRiD9rIGzKoM4%3D"/>
+    <hyperlink ref="H17" r:id="rId14" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072KL?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRt9oG83fAJgA%3D"/>
+    <hyperlink ref="H18" r:id="rId15" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0724KL?qs=sGAEpiMZZMvdGkrng054t3K8J6CcnfQ5adHpsze0Ggw%3D"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072R2L?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xQlq9a62Wvu8%3D"/>
+    <hyperlink ref="H20" r:id="rId17" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-071K13L?qs=sGAEpiMZZMvdGkrng054t8Pyfa06IR6dR1dWRH3Dn0Q%3D"/>
+    <hyperlink ref="H21" r:id="rId18" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07140KL?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xVGtQ4Izh%252B14%3D"/>
+    <hyperlink ref="H22" r:id="rId19" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDFRS%252Bk3sHilE%3D"/>
+    <hyperlink ref="H23" r:id="rId20" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710ML?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRC6jLGNvjt5I%3D"/>
+    <hyperlink ref="H24" r:id="rId21" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D"/>
+    <hyperlink ref="H25" r:id="rId22" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0747KL?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaR3%2FWJtGCqf3I%3D"/>
+    <hyperlink ref="H26" r:id="rId23" display="https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D"/>
+    <hyperlink ref="H27" r:id="rId24" display="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D" tooltip="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D"/>
+    <hyperlink ref="H28" r:id="rId25" display="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT" tooltip="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT"/>
+    <hyperlink ref="H29" r:id="rId26" display="https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D"/>
+    <hyperlink ref="H30" r:id="rId27" display="https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D"/>
+    <hyperlink ref="H31" r:id="rId28" display="https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="66.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="83.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671" tooltip="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="42.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.44444444444444" customWidth="1"/>
+    <col min="8" max="8" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="https://hobbyking.com/pt_pt/kd-53-30-high-voltage-brushless-outrunner-190kv.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>